--- a/toolkit/outputs/5-endUseDisaggregation/endUseDisagg_summary.xlsx
+++ b/toolkit/outputs/5-endUseDisaggregation/endUseDisagg_summary.xlsx
@@ -42,13 +42,13 @@
     <t>Other</t>
   </si>
   <si>
-    <t>[1.98260151 0.19587853]</t>
+    <t>[2 0]</t>
   </si>
   <si>
     <t>Cooling coils (per AHU)</t>
   </si>
   <si>
-    <t>[17.16685669 16.78984573]</t>
+    <t>[17 17]</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>19.71967185189849</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>96.10484773914537</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>91.50071536256344</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>31.71224852185017</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -504,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>7.990473644683281</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
